--- a/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,45 +541,57 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>50,85%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53,78%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 16,16</t>
+          <t>-5,08; 8,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,76</t>
+          <t>-4,43; 10,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 10,12</t>
+          <t>-9,95; 16,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 326,17</t>
+          <t>-1,15; 21,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 367,62</t>
+          <t>-50,58; 299,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 364,77</t>
+          <t>-51,27; 318,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 92,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 172,65</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,71</t>
+          <t>40,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,3</t>
+          <t>24,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,86</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>184,6%</t>
+          <t>23,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>495,58%</t>
+          <t>476,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>290,4%</t>
+          <t>294,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24,26%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38,52%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 35,2</t>
+          <t>33,4; 48,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 49,22</t>
+          <t>16,6; 35,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 33,48</t>
+          <t>1,84; 27,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,06; 363,36</t>
+          <t>9,0; 36,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>280,79; 1003,99</t>
+          <t>267,97; 907,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>107,72; 703,79</t>
+          <t>112,74; 733,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 63,85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 72,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>39,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,45</t>
+          <t>36,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,61</t>
+          <t>23,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>306,98%</t>
+          <t>26,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>364,69%</t>
+          <t>365,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>281,44%</t>
+          <t>281,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39,27%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,91; 45,29</t>
+          <t>33,71; 45,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,16; 46,11</t>
+          <t>28,52; 43,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,79; 44,4</t>
+          <t>14,53; 32,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>187,03; 492,57</t>
+          <t>18,2; 35,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>237,47; 611,98</t>
+          <t>244,41; 580,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>163,44; 469,0</t>
+          <t>162,02; 466,36</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,16; 61,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27,31; 65,43</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,91</t>
+          <t>38,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,85</t>
+          <t>46,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,09</t>
+          <t>20,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>221,32%</t>
+          <t>19,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>158,79%</t>
+          <t>164,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>241,99%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,1; 48,41</t>
+          <t>29,89; 45,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,59; 44,84</t>
+          <t>36,74; 53,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,61; 54,77</t>
+          <t>13,09; 29,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>138,79; 317,46</t>
+          <t>11,77; 26,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>101,79; 231,69</t>
+          <t>105,67; 248,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>146,45; 381,81</t>
+          <t>147,33; 362,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18,49; 51,06</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 46,31</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,62</t>
+          <t>50,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,45</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,27</t>
+          <t>25,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>244,29%</t>
+          <t>27,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>289,69%</t>
+          <t>296,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>213,78%</t>
+          <t>214,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,22%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 51,31</t>
+          <t>41,82; 57,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,34; 56,95</t>
+          <t>33,23; 50,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,52; 50,97</t>
+          <t>17,17; 34,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>139,71; 400,48</t>
+          <t>17,84; 35,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>175,02; 432,56</t>
+          <t>190,66; 445,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>136,25; 346,96</t>
+          <t>130,16; 347,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26,46; 67,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29,34; 72,75</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,61</t>
+          <t>35,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,21</t>
+          <t>43,47</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,46</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>273,14%</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>316,92%</t>
+          <t>337,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>240,01%</t>
+          <t>240,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,04; 47,93</t>
+          <t>26,55; 43,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,12; 42,74</t>
+          <t>31,49; 55,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,91; 54,02</t>
+          <t>-4,34; 19,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>165,85; 432,4</t>
+          <t>-6,0; 19,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>147,68; 575,85</t>
+          <t>171,99; 621,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>130,8; 414,15</t>
+          <t>131,59; 422,46</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 42,41</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 44,76</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,42</t>
+          <t>34,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,86</t>
+          <t>35,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>16,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>241,57%</t>
+          <t>18,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>269,82%</t>
+          <t>268,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>244,58%</t>
+          <t>245,22%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31,14%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34,48%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,1; 37,89</t>
+          <t>31,83; 38,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,21</t>
+          <t>31,06; 38,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,0</t>
+          <t>11,63; 21,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>189,39; 301,33</t>
+          <t>13,12; 22,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>214,79; 336,76</t>
+          <t>214,2; 332,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>183,65; 305,89</t>
+          <t>188,54; 303,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 41,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 45,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>34,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>50,85%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>18,75%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>53,78%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.239331768444452</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.279695442068067</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.229440917817241</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.95061457255089</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.319320508178683</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5085453494969171</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2262873000915898</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.579875883930967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 8,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 10,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 16,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 21,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-50,58; 299,04</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-51,27; 318,3</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-31,59; 92,74</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 172,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.587021507428856</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.430618588274711</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.892461946836002</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.8899463751159014</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5172470594098516</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5126903980835156</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.295157953579554</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.05406262901764954</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.937949814159881</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.32634845543967</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.78336812804561</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.54202317007403</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.940550960638313</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.182985666860334</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.022917905945441</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.797984324011573</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>40,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>24,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>476,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>294,16%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,26%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>38,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>33,4; 48,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16,6; 35,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 27,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 36,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>267,97; 907,94</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>112,74; 733,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,17; 63,85</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>12,64; 72,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>40.97155523752382</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>24.86222605744179</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.73858224238146</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>23.18463626067698</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.71321568108445</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.906987646964158</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2332412898651728</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3859956604968545</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>39,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>36,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>23,29</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,44</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>365,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>281,51%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>43,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>33.45794254123734</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>15.33117070678287</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.552303022614882</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>9.424856911065163</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.639003026168409</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.022584960505683</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02462686471431767</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1300542093519605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>33,71; 45,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>28,52; 43,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>14,53; 32,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>18,2; 35,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>244,41; 580,67</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>162,02; 466,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>22,16; 61,58</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>27,31; 65,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>48.77950798673764</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>34.49114407634578</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>26.82315664757716</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>36.39515260935342</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>8.799424317180074</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.215485919195386</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6045830754309435</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7201384802975317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>38,51</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>46,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>20,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,09</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>164,49%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>241,99%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33,58%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>29,77%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>39.53436373491311</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>36.60949836352362</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>23.10987247939712</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>26.36674918691225</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>3.664976773840439</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.815075513163201</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.38911625396704</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4276439324619665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 45,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>36,74; 53,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>13,09; 29,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,77; 26,82</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>105,67; 248,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>147,33; 362,12</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>18,49; 51,06</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 46,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>33.34676510229141</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>28.52011993034602</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>14.22931643542644</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>18.48630865005012</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2.465460991422655</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1.62023449838679</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.2183735675246783</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.2737098590466998</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>45.61110301372746</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>43.84402889054446</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>31.97038992152508</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>35.38781816725932</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>5.810459022694254</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.663572473668379</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6080451775905674</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6549587034226377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>50,11</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>42,13</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>25,55</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>27,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>296,95%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>214,41%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>43,53%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>49,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>41,82; 57,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>33,23; 50,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 34,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>17,84; 35,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>190,66; 445,15</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>130,16; 347,34</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>26,46; 67,86</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>29,34; 72,75</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>38.10884032365942</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>46.08718597535291</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>21.1678440229265</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>18.75982321645913</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.620280426729729</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.419885679081873</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3388264228271428</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2909664245221186</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>35,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>43,47</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>337,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>240,07%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>29.921508351989</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>36.74122317672071</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>13.06967969464282</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>11.46391947533567</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.048892498318766</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.473304860658126</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1895373513768242</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1648982649307052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>26,55; 43,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>31,49; 55,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 19,76</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 19,1</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>171,99; 621,41</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>131,59; 422,46</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 42,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; 44,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>44.98131726534221</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>53.54757141177444</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>29.33950938746785</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>26.62906758355178</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.416523039786272</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.621193564614192</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5173027009168979</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4529286314295524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>34,95</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>35,01</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>16,55</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>18,44</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>268,98%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>245,22%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>31,14%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>34,48%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>49.78244510884679</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>42.27157572614406</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>25.44502029405788</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>27.5408971461796</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>2.927944637128142</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>2.137776656414363</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.432976132093749</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.4925697276813951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>31,83; 38,07</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>31,06; 38,86</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 21,02</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>13,12; 22,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>214,2; 332,62</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>188,54; 303,46</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 41,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>23,17; 45,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>41.26068676576521</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>32.29814858018519</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>17.12407924709502</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>18.2462943184477</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>1.85518579240255</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1.26516054267189</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.2638147231658376</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.2965381482185648</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>57.22231156151296</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>50.4299162079522</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>34.91685948637597</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>36.22333905066954</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4.424129721686267</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>3.301092508045904</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.6765703611674454</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.73860601270486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>35.23773495932787</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>43.46629796235255</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>8.403908399666182</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.401571600988209</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>3.338181640888116</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.400683391894046</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1526911403851186</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.1244150801999845</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>26.24999423310171</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>31.48774245784973</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-4.14776738742458</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-6.784799929644661</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>1.658415597177949</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.315928265799271</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.06646165904950345</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1126020009886359</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>44.21685769974584</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>55.18741125284458</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>19.72837088654345</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>18.76520114910768</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>6.195915882823825</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>4.224617815289262</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.4195303479797212</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.4295325437168225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>34.81086200679435</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>35.00681424751942</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>16.59672542552406</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>18.32976838274091</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>2.656899068720993</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>2.44637121797161</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.3121862645521165</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.341528936732001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>31.59593085160688</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>31.12553012716977</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>11.73987094648237</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>13.20804567492946</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>2.129986196821867</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>1.916359286422882</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.2056555142887681</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.232653941885708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>37.89340739573644</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>39.16024819947223</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>21.02162679088278</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>22.99407998929943</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>3.291839168261534</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>3.159755558035651</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.4150676462039216</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.4536106066529376</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
